--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -704,8 +704,8 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1001001</v>
+        <v>5001</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1001001</v>
+        <v>5001</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1001001</v>
+        <v>5001</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1001001</v>
+        <v>5001</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1001001</v>
+        <v>5001</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1001002</v>
+        <v>5002</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1001002</v>
+        <v>5002</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1001002</v>
+        <v>5002</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1001002</v>
+        <v>5002</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>1001002</v>
+        <v>5002</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>6</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1001003</v>
+        <v>5003</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>1001003</v>
+        <v>5003</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>1001003</v>
+        <v>5003</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1001003</v>
+        <v>5003</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>1001003</v>
+        <v>5003</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>1001004</v>
+        <v>5004</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>1001004</v>
+        <v>5004</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>1001004</v>
+        <v>5004</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1001004</v>
+        <v>5004</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>1001004</v>
+        <v>5004</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>8</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1001005</v>
+        <v>5005</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>1001005</v>
+        <v>5005</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1001005</v>
+        <v>5005</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1001005</v>
+        <v>5005</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1001005</v>
+        <v>5005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -705,7 +705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A29"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +22,52 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每分钟攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多少次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -305,12 +350,44 @@
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_common#id_lv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +442,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -701,22 +784,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,25 +814,31 @@
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,25 +852,31 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -794,25 +890,31 @@
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -825,11 +927,11 @@
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -843,8 +945,14 @@
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -858,25 +966,31 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>80</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>1000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -890,25 +1004,31 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
         <v>120</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>90</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>1100</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -922,25 +1042,31 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
         <v>140</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>1200</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -954,25 +1080,31 @@
         <v>4</v>
       </c>
       <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
         <v>160</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>110</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>1300</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>12</v>
       </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -986,25 +1118,31 @@
         <v>5</v>
       </c>
       <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
         <v>180</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>120</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>1400</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>14</v>
       </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5002</v>
       </c>
@@ -1018,25 +1156,31 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>80</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>1000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5002</v>
       </c>
@@ -1050,25 +1194,31 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11">
         <v>120</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>1100</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5002</v>
       </c>
@@ -1082,25 +1232,31 @@
         <v>3</v>
       </c>
       <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
         <v>140</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>1200</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>10</v>
       </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5002</v>
       </c>
@@ -1114,25 +1270,31 @@
         <v>4</v>
       </c>
       <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13">
         <v>160</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>110</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>1300</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>12</v>
       </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -1146,25 +1308,31 @@
         <v>5</v>
       </c>
       <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
         <v>180</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
         <v>120</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>1400</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>14</v>
       </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5003</v>
       </c>
@@ -1178,25 +1346,31 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>80</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>1000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <v>6</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5003</v>
       </c>
@@ -1210,25 +1384,31 @@
         <v>2</v>
       </c>
       <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
         <v>120</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H16" s="2">
         <v>90</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>1100</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>8</v>
       </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5003</v>
       </c>
@@ -1242,25 +1422,31 @@
         <v>3</v>
       </c>
       <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17">
         <v>140</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17" s="4">
         <v>1200</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <v>10</v>
       </c>
-      <c r="I17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5003</v>
       </c>
@@ -1274,25 +1460,31 @@
         <v>4</v>
       </c>
       <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
         <v>160</v>
       </c>
-      <c r="F18" s="2">
+      <c r="H18" s="2">
         <v>110</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18" s="4">
         <v>1300</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>12</v>
       </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5003</v>
       </c>
@@ -1306,25 +1498,31 @@
         <v>5</v>
       </c>
       <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
         <v>180</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>120</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19" s="4">
         <v>1400</v>
       </c>
-      <c r="H19" s="4">
+      <c r="J19" s="4">
         <v>14</v>
       </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5004</v>
       </c>
@@ -1338,25 +1536,31 @@
         <v>1</v>
       </c>
       <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20">
         <v>100</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>80</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20" s="4">
         <v>1000</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <v>6</v>
       </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5004</v>
       </c>
@@ -1370,25 +1574,31 @@
         <v>2</v>
       </c>
       <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21">
         <v>120</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="2">
         <v>90</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21" s="4">
         <v>1100</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="4">
         <v>8</v>
       </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -1402,25 +1612,31 @@
         <v>3</v>
       </c>
       <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22">
         <v>140</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>100</v>
       </c>
-      <c r="G22" s="4">
+      <c r="I22" s="4">
         <v>1200</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>10</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5004</v>
       </c>
@@ -1434,25 +1650,31 @@
         <v>4</v>
       </c>
       <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
         <v>160</v>
       </c>
-      <c r="F23" s="2">
+      <c r="H23" s="2">
         <v>110</v>
       </c>
-      <c r="G23" s="4">
+      <c r="I23" s="4">
         <v>1300</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>12</v>
       </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5004</v>
       </c>
@@ -1466,25 +1688,31 @@
         <v>5</v>
       </c>
       <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
         <v>180</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="2">
         <v>120</v>
       </c>
-      <c r="G24" s="4">
+      <c r="I24" s="4">
         <v>1400</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>14</v>
       </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5005</v>
       </c>
@@ -1498,25 +1726,31 @@
         <v>1</v>
       </c>
       <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
         <v>100</v>
       </c>
-      <c r="F25" s="2">
+      <c r="H25" s="2">
         <v>80</v>
       </c>
-      <c r="G25" s="4">
+      <c r="I25" s="4">
         <v>1000</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>6</v>
       </c>
-      <c r="I25" s="4">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5005</v>
       </c>
@@ -1530,25 +1764,31 @@
         <v>2</v>
       </c>
       <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26">
         <v>120</v>
       </c>
-      <c r="F26" s="2">
+      <c r="H26" s="2">
         <v>90</v>
       </c>
-      <c r="G26" s="4">
+      <c r="I26" s="4">
         <v>1100</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J26" s="4">
         <v>8</v>
       </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5005</v>
       </c>
@@ -1562,25 +1802,31 @@
         <v>3</v>
       </c>
       <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27">
         <v>140</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H27" s="2">
         <v>100</v>
       </c>
-      <c r="G27" s="4">
+      <c r="I27" s="4">
         <v>1200</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <v>10</v>
       </c>
-      <c r="I27" s="4">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5005</v>
       </c>
@@ -1594,25 +1840,31 @@
         <v>4</v>
       </c>
       <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28">
         <v>160</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2">
         <v>110</v>
       </c>
-      <c r="G28" s="4">
+      <c r="I28" s="4">
         <v>1300</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <v>12</v>
       </c>
-      <c r="I28" s="4">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5005</v>
       </c>
@@ -1626,21 +1878,27 @@
         <v>5</v>
       </c>
       <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29">
         <v>180</v>
       </c>
-      <c r="F29" s="2">
+      <c r="H29" s="2">
         <v>120</v>
       </c>
-      <c r="G29" s="4">
+      <c r="I29" s="4">
         <v>1400</v>
       </c>
-      <c r="H29" s="4">
+      <c r="J29" s="4">
         <v>14</v>
       </c>
-      <c r="I29" s="4">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>60</v>
       </c>
     </row>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0">
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>moduleid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -381,6 +377,39 @@
   <si>
     <t>1001_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aocao</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunquan</t>
+  </si>
+  <si>
+    <t>guanyu</t>
+  </si>
+  <si>
+    <t>weiyan</t>
+  </si>
+  <si>
+    <t>zhouyu</t>
   </si>
 </sst>
 </file>
@@ -482,7 +511,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -498,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,13 +817,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F29"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="7.5" bestFit="1" customWidth="1"/>
@@ -814,10 +843,10 @@
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -852,10 +881,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -884,16 +913,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -919,19 +948,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -959,8 +988,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -969,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -997,8 +1026,8 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1007,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>120</v>
@@ -1035,8 +1064,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1045,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>140</v>
@@ -1073,8 +1102,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1083,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>160</v>
@@ -1111,8 +1140,8 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1121,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>180</v>
@@ -1149,8 +1178,8 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1159,7 +1188,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -1187,8 +1216,8 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
-        <v>2</v>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1197,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>120</v>
@@ -1225,8 +1254,8 @@
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1235,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>140</v>
@@ -1263,8 +1292,8 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1273,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>160</v>
@@ -1301,8 +1330,8 @@
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1311,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>180</v>
@@ -1339,8 +1368,8 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" t="s">
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1349,7 +1378,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1377,8 +1406,8 @@
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1387,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>120</v>
@@ -1415,8 +1444,8 @@
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>3</v>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1425,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>140</v>
@@ -1453,8 +1482,8 @@
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>3</v>
+      <c r="C18" t="s">
+        <v>42</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1463,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>160</v>
@@ -1491,8 +1520,8 @@
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1501,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>180</v>
@@ -1529,8 +1558,8 @@
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4">
-        <v>4</v>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1539,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -1567,8 +1596,8 @@
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4">
-        <v>4</v>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1577,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>120</v>
@@ -1605,8 +1634,8 @@
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
-        <v>4</v>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1615,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>140</v>
@@ -1643,8 +1672,8 @@
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4">
-        <v>4</v>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1653,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>160</v>
@@ -1681,8 +1710,8 @@
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4">
-        <v>4</v>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1691,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>180</v>
@@ -1719,8 +1748,8 @@
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="4">
-        <v>5</v>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1729,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -1757,8 +1786,8 @@
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4">
-        <v>5</v>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1767,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>120</v>
@@ -1795,8 +1824,8 @@
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4">
-        <v>5</v>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1805,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>140</v>
@@ -1833,8 +1862,8 @@
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4">
-        <v>5</v>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1843,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>160</v>
@@ -1871,8 +1900,8 @@
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
-        <v>5</v>
+      <c r="C29" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1881,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>180</v>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -19,10 +19,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -33,52 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-每分钟攻击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>多少次</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -93,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +59,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -143,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -158,7 +113,7 @@
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -175,27 +130,27 @@
       </rPr>
       <t>l</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>曹操</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>孙权</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>关羽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魏延</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>周瑜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
@@ -223,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>n</t>
     </r>
@@ -262,7 +213,7 @@
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,88 +250,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴伤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crit_hurt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>l</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>jl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill_common#id_lv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1001_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -397,7 +328,7 @@
       </rPr>
       <t>aocao</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sunquan</t>
@@ -410,13 +341,17 @@
   </si>
   <si>
     <t>zhouyu</t>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,12 +369,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -472,12 +401,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,13 +428,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -527,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,154 +736,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I1" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
@@ -974,965 +880,809 @@
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5001</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="4">
-        <v>6</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5001</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
         <v>120</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>90</v>
       </c>
+      <c r="H6" s="4">
+        <v>1100</v>
+      </c>
       <c r="I6" s="4">
-        <v>1100</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5001</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
         <v>140</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>100</v>
       </c>
+      <c r="H7" s="4">
+        <v>1200</v>
+      </c>
       <c r="I7" s="4">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="J7" s="4">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5001</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
         <v>160</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2">
         <v>110</v>
       </c>
+      <c r="H8" s="4">
+        <v>1300</v>
+      </c>
       <c r="I8" s="4">
-        <v>1300</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5001</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
         <v>180</v>
       </c>
-      <c r="H9" s="2">
+      <c r="G9" s="2">
         <v>120</v>
       </c>
+      <c r="H9" s="4">
+        <v>1400</v>
+      </c>
       <c r="I9" s="4">
-        <v>1400</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>14</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5002</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2">
         <v>80</v>
       </c>
+      <c r="H10" s="4">
+        <v>1000</v>
+      </c>
       <c r="I10" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5002</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
         <v>120</v>
       </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2">
         <v>90</v>
       </c>
+      <c r="H11" s="4">
+        <v>1100</v>
+      </c>
       <c r="I11" s="4">
-        <v>1100</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4">
-        <v>8</v>
-      </c>
-      <c r="K11" s="4">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5002</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
         <v>140</v>
       </c>
-      <c r="H12" s="2">
+      <c r="G12" s="2">
         <v>100</v>
       </c>
+      <c r="H12" s="4">
+        <v>1200</v>
+      </c>
       <c r="I12" s="4">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5002</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
         <v>160</v>
       </c>
-      <c r="H13" s="2">
+      <c r="G13" s="2">
         <v>110</v>
       </c>
+      <c r="H13" s="4">
+        <v>1300</v>
+      </c>
       <c r="I13" s="4">
-        <v>1300</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4">
-        <v>12</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5002</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
         <v>180</v>
       </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2">
         <v>120</v>
       </c>
+      <c r="H14" s="4">
+        <v>1400</v>
+      </c>
       <c r="I14" s="4">
-        <v>1400</v>
+        <v>5</v>
       </c>
       <c r="J14" s="4">
-        <v>14</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5003</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
         <v>80</v>
       </c>
+      <c r="H15" s="4">
+        <v>1000</v>
+      </c>
       <c r="I15" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J15" s="4">
-        <v>6</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5003</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
         <v>120</v>
       </c>
-      <c r="H16" s="2">
+      <c r="G16" s="2">
         <v>90</v>
       </c>
+      <c r="H16" s="4">
+        <v>1100</v>
+      </c>
       <c r="I16" s="4">
-        <v>1100</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>8</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5003</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
         <v>140</v>
       </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2">
         <v>100</v>
       </c>
+      <c r="H17" s="4">
+        <v>1200</v>
+      </c>
       <c r="I17" s="4">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4">
-        <v>10</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5003</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
         <v>160</v>
       </c>
-      <c r="H18" s="2">
+      <c r="G18" s="2">
         <v>110</v>
       </c>
+      <c r="H18" s="4">
+        <v>1300</v>
+      </c>
       <c r="I18" s="4">
-        <v>1300</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4">
-        <v>12</v>
-      </c>
-      <c r="K18" s="4">
-        <v>5</v>
-      </c>
-      <c r="L18" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5003</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
         <v>180</v>
       </c>
-      <c r="H19" s="2">
+      <c r="G19" s="2">
         <v>120</v>
       </c>
+      <c r="H19" s="4">
+        <v>1400</v>
+      </c>
       <c r="I19" s="4">
-        <v>1400</v>
+        <v>5</v>
       </c>
       <c r="J19" s="4">
-        <v>14</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5004</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20">
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
         <v>100</v>
       </c>
-      <c r="H20" s="2">
+      <c r="G20" s="2">
         <v>80</v>
       </c>
+      <c r="H20" s="4">
+        <v>1000</v>
+      </c>
       <c r="I20" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J20" s="4">
-        <v>6</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5004</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21">
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
         <v>120</v>
       </c>
-      <c r="H21" s="2">
+      <c r="G21" s="2">
         <v>90</v>
       </c>
+      <c r="H21" s="4">
+        <v>1100</v>
+      </c>
       <c r="I21" s="4">
-        <v>1100</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4">
-        <v>8</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5004</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22">
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
         <v>140</v>
       </c>
-      <c r="H22" s="2">
+      <c r="G22" s="2">
         <v>100</v>
       </c>
+      <c r="H22" s="4">
+        <v>1200</v>
+      </c>
       <c r="I22" s="4">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="J22" s="4">
-        <v>10</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5004</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23">
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
         <v>160</v>
       </c>
-      <c r="H23" s="2">
+      <c r="G23" s="2">
         <v>110</v>
       </c>
+      <c r="H23" s="4">
+        <v>1300</v>
+      </c>
       <c r="I23" s="4">
-        <v>1300</v>
+        <v>5</v>
       </c>
       <c r="J23" s="4">
-        <v>12</v>
-      </c>
-      <c r="K23" s="4">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5004</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24">
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
         <v>180</v>
       </c>
-      <c r="H24" s="2">
+      <c r="G24" s="2">
         <v>120</v>
       </c>
+      <c r="H24" s="4">
+        <v>1400</v>
+      </c>
       <c r="I24" s="4">
-        <v>1400</v>
+        <v>5</v>
       </c>
       <c r="J24" s="4">
-        <v>14</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5005</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G25">
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25">
         <v>100</v>
       </c>
-      <c r="H25" s="2">
+      <c r="G25" s="2">
         <v>80</v>
       </c>
+      <c r="H25" s="4">
+        <v>1000</v>
+      </c>
       <c r="I25" s="4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J25" s="4">
-        <v>6</v>
-      </c>
-      <c r="K25" s="4">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5005</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G26">
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
         <v>120</v>
       </c>
-      <c r="H26" s="2">
+      <c r="G26" s="2">
         <v>90</v>
       </c>
+      <c r="H26" s="4">
+        <v>1100</v>
+      </c>
       <c r="I26" s="4">
-        <v>1100</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4">
-        <v>8</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5005</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G27">
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
         <v>140</v>
       </c>
-      <c r="H27" s="2">
+      <c r="G27" s="2">
         <v>100</v>
       </c>
+      <c r="H27" s="4">
+        <v>1200</v>
+      </c>
       <c r="I27" s="4">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="J27" s="4">
-        <v>10</v>
-      </c>
-      <c r="K27" s="4">
-        <v>5</v>
-      </c>
-      <c r="L27" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5005</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G28">
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28">
         <v>160</v>
       </c>
-      <c r="H28" s="2">
+      <c r="G28" s="2">
         <v>110</v>
       </c>
+      <c r="H28" s="4">
+        <v>1300</v>
+      </c>
       <c r="I28" s="4">
-        <v>1300</v>
+        <v>5</v>
       </c>
       <c r="J28" s="4">
-        <v>12</v>
-      </c>
-      <c r="K28" s="4">
-        <v>5</v>
-      </c>
-      <c r="L28" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5005</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G29">
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29">
         <v>180</v>
       </c>
-      <c r="H29" s="2">
+      <c r="G29" s="2">
         <v>120</v>
       </c>
+      <c r="H29" s="4">
+        <v>1400</v>
+      </c>
       <c r="I29" s="4">
-        <v>1400</v>
+        <v>5</v>
       </c>
       <c r="J29" s="4">
-        <v>14</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
-      <c r="L29" s="4">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
+    <sheet name="LevelupExp" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$J$4</definedName>
@@ -74,31 +75,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 客户端专用
-2 服务器专用
-3 通用
-0 策划维护用
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -345,6 +327,14 @@
   <si>
     <t>model</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -738,9 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1687,4 +1677,252 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>26000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
-    <sheet name="LevelupExp" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$J$4</definedName>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -329,12 +328,36 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>晋级材料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4113_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4113_2</t>
+  </si>
+  <si>
+    <t>4113_3</t>
+  </si>
+  <si>
+    <t>4113_4</t>
+  </si>
+  <si>
+    <t>4113_5</t>
+  </si>
+  <si>
+    <t>needs#id_cnt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,9 +764,10 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +798,11 @@
       <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,8 +833,11 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -838,8 +868,11 @@
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -870,8 +903,11 @@
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -902,8 +938,11 @@
       <c r="J5" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -934,8 +973,11 @@
       <c r="J6" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -966,8 +1008,11 @@
       <c r="J7" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -998,8 +1043,11 @@
       <c r="J8" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -1030,8 +1078,11 @@
       <c r="J9" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5002</v>
       </c>
@@ -1062,8 +1113,11 @@
       <c r="J10" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5002</v>
       </c>
@@ -1094,8 +1148,11 @@
       <c r="J11" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5002</v>
       </c>
@@ -1126,8 +1183,11 @@
       <c r="J12" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5002</v>
       </c>
@@ -1158,8 +1218,11 @@
       <c r="J13" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -1190,8 +1253,11 @@
       <c r="J14" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5003</v>
       </c>
@@ -1222,8 +1288,11 @@
       <c r="J15" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5003</v>
       </c>
@@ -1254,8 +1323,11 @@
       <c r="J16" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5003</v>
       </c>
@@ -1286,8 +1358,11 @@
       <c r="J17" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5003</v>
       </c>
@@ -1318,8 +1393,11 @@
       <c r="J18" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5003</v>
       </c>
@@ -1350,8 +1428,11 @@
       <c r="J19" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5004</v>
       </c>
@@ -1382,8 +1463,11 @@
       <c r="J20" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5004</v>
       </c>
@@ -1414,8 +1498,11 @@
       <c r="J21" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -1446,8 +1533,11 @@
       <c r="J22" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5004</v>
       </c>
@@ -1478,8 +1568,11 @@
       <c r="J23" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5004</v>
       </c>
@@ -1510,8 +1603,11 @@
       <c r="J24" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5005</v>
       </c>
@@ -1542,8 +1638,11 @@
       <c r="J25" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5005</v>
       </c>
@@ -1574,8 +1673,11 @@
       <c r="J26" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5005</v>
       </c>
@@ -1606,8 +1708,11 @@
       <c r="J27" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5005</v>
       </c>
@@ -1638,8 +1743,11 @@
       <c r="J28" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5005</v>
       </c>
@@ -1669,6 +1777,9 @@
       </c>
       <c r="J29" s="4">
         <v>60</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1677,252 +1788,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>26000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -357,6 +357,22 @@
   </si>
   <si>
     <t>needs#id_cnt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -749,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,12 +778,13 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,25 +801,31 @@
         <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,25 +842,31 @@
         <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -854,25 +883,31 @@
         <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -888,11 +923,11 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -903,11 +938,17 @@
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -923,26 +964,32 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>80</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>1000</v>
       </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -958,26 +1005,28 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6">
         <v>120</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>90</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>1100</v>
       </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -993,26 +1042,28 @@
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7">
         <v>140</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>100</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>1200</v>
       </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>50</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -1028,26 +1079,28 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8">
         <v>160</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>110</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>1300</v>
       </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>55</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -1063,26 +1116,28 @@
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9">
         <v>180</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>120</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>1400</v>
       </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
         <v>60</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5002</v>
       </c>
@@ -1098,26 +1153,32 @@
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1003</v>
+      </c>
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>80</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <v>1000</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>40</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5002</v>
       </c>
@@ -1133,26 +1194,28 @@
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11">
         <v>120</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>90</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>1100</v>
       </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
         <v>45</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5002</v>
       </c>
@@ -1168,26 +1231,28 @@
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12">
         <v>140</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="2">
         <v>100</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>1200</v>
       </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>50</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5002</v>
       </c>
@@ -1203,26 +1268,28 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13">
         <v>160</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>110</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>1300</v>
       </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>55</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -1238,26 +1305,28 @@
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14">
         <v>180</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <v>120</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>1400</v>
       </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>60</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5003</v>
       </c>
@@ -1273,26 +1342,32 @@
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1004</v>
+      </c>
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>80</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <v>1000</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
         <v>40</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5003</v>
       </c>
@@ -1308,26 +1383,28 @@
       <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16">
         <v>120</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="2">
         <v>90</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>1100</v>
       </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
         <v>45</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5003</v>
       </c>
@@ -1343,26 +1420,28 @@
       <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17">
         <v>140</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>100</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <v>1200</v>
       </c>
-      <c r="I17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>50</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5003</v>
       </c>
@@ -1378,26 +1457,28 @@
       <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18">
         <v>160</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="2">
         <v>110</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>1300</v>
       </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
         <v>55</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5003</v>
       </c>
@@ -1413,26 +1494,28 @@
       <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19">
         <v>180</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>120</v>
       </c>
-      <c r="H19" s="4">
+      <c r="J19" s="4">
         <v>1400</v>
       </c>
-      <c r="I19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
         <v>60</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5004</v>
       </c>
@@ -1448,26 +1531,32 @@
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
+        <v>1003</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1004</v>
+      </c>
+      <c r="H20">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>80</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <v>1000</v>
       </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>40</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5004</v>
       </c>
@@ -1483,26 +1572,28 @@
       <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21">
         <v>120</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>90</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="4">
         <v>1100</v>
       </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
         <v>45</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5004</v>
       </c>
@@ -1518,26 +1609,28 @@
       <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22">
         <v>140</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>100</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>1200</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>50</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5004</v>
       </c>
@@ -1553,26 +1646,28 @@
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23">
         <v>160</v>
       </c>
-      <c r="G23" s="2">
+      <c r="I23" s="2">
         <v>110</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>1300</v>
       </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>55</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5004</v>
       </c>
@@ -1588,26 +1683,28 @@
       <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24">
         <v>180</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="2">
         <v>120</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>1400</v>
       </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>60</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5005</v>
       </c>
@@ -1623,26 +1720,32 @@
       <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1004</v>
+      </c>
+      <c r="H25">
         <v>100</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>80</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>1000</v>
       </c>
-      <c r="I25" s="4">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>40</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5005</v>
       </c>
@@ -1658,26 +1761,28 @@
       <c r="E26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26">
         <v>120</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>90</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J26" s="4">
         <v>1100</v>
       </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>45</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5005</v>
       </c>
@@ -1693,26 +1798,28 @@
       <c r="E27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27">
         <v>140</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>100</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <v>1200</v>
       </c>
-      <c r="I27" s="4">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>50</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5005</v>
       </c>
@@ -1728,26 +1835,28 @@
       <c r="E28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28">
         <v>160</v>
       </c>
-      <c r="G28" s="2">
+      <c r="I28" s="2">
         <v>110</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <v>1300</v>
       </c>
-      <c r="I28" s="4">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
         <v>55</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5005</v>
       </c>
@@ -1763,22 +1872,24 @@
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29">
         <v>180</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>120</v>
       </c>
-      <c r="H29" s="4">
+      <c r="J29" s="4">
         <v>1400</v>
       </c>
-      <c r="I29" s="4">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>60</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroProto" sheetId="4" r:id="rId1"/>
+    <sheet name="Hero" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HeroProto!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hero!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -769,7 +769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -202,10 +202,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -331,6 +327,9 @@
   </si>
   <si>
     <t>0_0_400|2_0_70|3_0_28|4_0_9|5_0_60</t>
+  </si>
+  <si>
+    <t>lv</t>
   </si>
 </sst>
 </file>
@@ -743,22 +742,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -769,16 +768,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -795,22 +794,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -818,25 +817,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -847,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>30</v>
@@ -856,7 +855,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>1002</v>
@@ -873,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
@@ -882,7 +881,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>1002</v>
@@ -899,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -908,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>1002</v>
@@ -925,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>30</v>
@@ -934,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>1003</v>
@@ -951,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>30</v>
@@ -960,7 +959,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>1002</v>
@@ -981,7 +980,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1017,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1028,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1042,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1053,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1064,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1075,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1086,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1097,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1108,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1119,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1130,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1141,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1152,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1163,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1174,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1185,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1196,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1207,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1218,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1229,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1240,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1251,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1262,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1273,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1284,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1295,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1306,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/hero_英雄表.xlsx
+++ b/plan/excel/hero_英雄表.xlsx
@@ -4,20 +4,170 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="4" r:id="rId1"/>
     <sheet name="HeroProp" sheetId="5" r:id="rId2"/>
+    <sheet name="HeroTalent" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hero!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hero!$A$1:$I$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+不同英雄的属性倾向</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+基础属性的加成</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">属性ID
+0: HP
+1: 速度
+2: 攻击
+3: 防御
+4: 暴击
+5: 暴伤
+属性PART:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:  基础
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:  百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:  额外
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -109,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>英雄ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -331,12 +481,36 @@
   <si>
     <t>lv</t>
   </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>天赋ID</t>
+  </si>
+  <si>
+    <t>0_2_200|2_2_50|3_2_20</t>
+  </si>
+  <si>
+    <t>0_2_250|2_2_55|3_2_22</t>
+  </si>
+  <si>
+    <t>0_2_300|2_2_60|3_2_24</t>
+  </si>
+  <si>
+    <t>0_2_350|2_2_65|3_2_26</t>
+  </si>
+  <si>
+    <t>0_2_400|2_2_70|3_2_28</t>
+  </si>
+  <si>
+    <t>天赋属性</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +557,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,24 +904,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,19 +935,22 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,19 +964,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -800,19 +993,22 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -829,16 +1025,19 @@
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -851,20 +1050,23 @@
       <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5002</v>
       </c>
@@ -877,20 +1079,23 @@
       <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5003</v>
       </c>
@@ -903,20 +1108,23 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5004</v>
       </c>
@@ -929,20 +1137,23 @@
       <c r="D8" s="2">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1003</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5005</v>
       </c>
@@ -955,16 +1166,19 @@
       <c r="D9" s="2">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1002</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1004</v>
       </c>
     </row>
@@ -972,6 +1186,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -979,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,4 +1527,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>